--- a/dctf_detalhamento.xlsx
+++ b/dctf_detalhamento.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -519,17 +519,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>30/11/2024</t>
+          <t>31/07/2024</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79,97</t>
+          <t>57,21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>79,97</t>
+          <t>57,21</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -544,11 +544,11 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>79,97</t>
+          <t>57,21</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>19.97</v>
+        <v>57.21</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -558,12 +558,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>19,97</t>
+          <t>57,21</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>19,97</t>
+          <t>57,21</t>
         </is>
       </c>
     </row>
@@ -585,17 +585,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>30/11/2024</t>
+          <t>31/07/2024</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>369,11</t>
+          <t>264,02</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>369,11</t>
+          <t>264,02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -610,11 +610,11 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>369,11</t>
+          <t>264,02</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>369.11</v>
+        <v>264.02</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -624,12 +624,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>369,11</t>
+          <t>264,02</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>369,11</t>
+          <t>264,02</t>
         </is>
       </c>
     </row>
